--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_12_36.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_12_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3342045.618524949</v>
+        <v>3339501.84385829</v>
       </c>
     </row>
     <row r="7">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8065216.574275189</v>
+        <v>8065216.574275187</v>
       </c>
     </row>
     <row r="11">
@@ -671,7 +671,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>12.83561175645086</v>
+        <v>263.5639921989987</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.8004413602292</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>84.88638657879451</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1482828471418</v>
       </c>
       <c r="V2" t="n">
-        <v>212.4355068307149</v>
+        <v>263.5639921989987</v>
       </c>
       <c r="W2" t="n">
-        <v>263.5639921989978</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>263.5639921989978</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>263.5639921989978</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,13 +735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>159.536768235114</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>21.14092458675639</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -783,28 +783,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.20026557072404</v>
+        <v>18.20026557072374</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>194.8440868802706</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8545380905306</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -814,25 +814,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>16.70520260549793</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5335881704491</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>204.7303985328714</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.2171002436558</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>203.7940617798992</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>263.5639921989987</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,19 +893,19 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>212.5689651179051</v>
+      </c>
+      <c r="E5" t="n">
         <v>263.7138800015061</v>
       </c>
-      <c r="C5" t="n">
-        <v>219.4450108596165</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
       <c r="F5" t="n">
-        <v>263.7138800015061</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>12.83417464571001</v>
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="Y5" t="n">
         <v>263.7138800015061</v>
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>127.4695742187183</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -1020,16 +1020,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>178.7818072471469</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1038,10 +1038,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>114.6128256968458</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1108,19 +1108,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>17.28688718947226</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>286.5888679426066</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>121.7301906704636</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1184,19 +1184,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1291,7 +1291,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1300,7 +1300,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>85.36610313819104</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>199.409503450133</v>
       </c>
     </row>
     <row r="11">
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1537,7 +1537,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>41.33703994143007</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1546,7 +1546,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>42.5313457611372</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1771,19 +1771,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>51.36569740310371</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0.8253826161913524</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,10 +1813,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695597</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2005,19 +2005,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>23.10998325717214</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>3.006892987834553</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2242,10 +2242,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>100.58583229927</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>154.0370966050008</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2327,7 +2327,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>409.8033385187866</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>15.51491006411065</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2710,22 +2710,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>133.3722917337063</v>
       </c>
       <c r="C28" t="n">
-        <v>104.8913819999782</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>36.21070476472222</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3190,19 +3190,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3272,13 +3272,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3424,22 +3424,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428169</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3481,7 +3481,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3490,7 +3490,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>140.2695301648957</v>
       </c>
     </row>
     <row r="38">
@@ -3503,7 +3503,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710069</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3518,7 +3518,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3664,19 +3664,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>170.9457618790573</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3737,10 +3737,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710061</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695524</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3907,16 +3907,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428169</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3986,13 +3986,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417105</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444128</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4141,10 +4141,10 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4186,7 +4186,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>154.8443340724369</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4195,13 +4195,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>161.3555494301526</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>40.99588452557872</v>
+        <v>294.2568748715867</v>
       </c>
       <c r="C2" t="n">
-        <v>40.99588452557872</v>
+        <v>294.2568748715867</v>
       </c>
       <c r="D2" t="n">
-        <v>40.99588452557872</v>
+        <v>294.2568748715867</v>
       </c>
       <c r="E2" t="n">
-        <v>40.99588452557872</v>
+        <v>294.2568748715867</v>
       </c>
       <c r="F2" t="n">
-        <v>34.05038377637525</v>
+        <v>287.3113741223833</v>
       </c>
       <c r="G2" t="n">
-        <v>21.08511937591983</v>
+        <v>21.0851193759199</v>
       </c>
       <c r="H2" t="n">
-        <v>21.08511937591983</v>
+        <v>21.0851193759199</v>
       </c>
       <c r="I2" t="n">
-        <v>21.08511937591983</v>
+        <v>21.0851193759199</v>
       </c>
       <c r="J2" t="n">
-        <v>50.19026732551852</v>
+        <v>49.14994660701203</v>
       </c>
       <c r="K2" t="n">
-        <v>142.9906865349492</v>
+        <v>141.9503658164438</v>
       </c>
       <c r="L2" t="n">
-        <v>295.0195743965811</v>
+        <v>293.9792536780772</v>
       </c>
       <c r="M2" t="n">
-        <v>495.8504424173902</v>
+        <v>494.8101216988878</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5447722238173</v>
+        <v>703.5044515053164</v>
       </c>
       <c r="O2" t="n">
-        <v>888.2736487381127</v>
+        <v>887.2333280196133</v>
       </c>
       <c r="P2" t="n">
-        <v>1010.58099326632</v>
+        <v>1010.580993266323</v>
       </c>
       <c r="Q2" t="n">
-        <v>1054.255968795991</v>
+        <v>1054.255968795995</v>
       </c>
       <c r="R2" t="n">
-        <v>1054.255968795991</v>
+        <v>1054.255968795995</v>
       </c>
       <c r="S2" t="n">
-        <v>1054.255968795991</v>
+        <v>899.9120886341473</v>
       </c>
       <c r="T2" t="n">
-        <v>1054.255968795991</v>
+        <v>814.1682638070821</v>
       </c>
       <c r="U2" t="n">
-        <v>1054.255968795991</v>
+        <v>560.48312961805</v>
       </c>
       <c r="V2" t="n">
-        <v>839.6746487649662</v>
+        <v>294.2568748715867</v>
       </c>
       <c r="W2" t="n">
-        <v>573.4483940185037</v>
+        <v>294.2568748715867</v>
       </c>
       <c r="X2" t="n">
-        <v>307.2221392720412</v>
+        <v>294.2568748715867</v>
       </c>
       <c r="Y2" t="n">
-        <v>40.99588452557872</v>
+        <v>294.2568748715867</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>216.8926179365988</v>
+        <v>195.5381486570469</v>
       </c>
       <c r="C3" t="n">
-        <v>42.43958865547174</v>
+        <v>21.0851193759199</v>
       </c>
       <c r="D3" t="n">
-        <v>21.08511937591983</v>
+        <v>21.0851193759199</v>
       </c>
       <c r="E3" t="n">
-        <v>21.08511937591983</v>
+        <v>21.0851193759199</v>
       </c>
       <c r="F3" t="n">
-        <v>21.08511937591983</v>
+        <v>21.0851193759199</v>
       </c>
       <c r="G3" t="n">
-        <v>21.08511937591983</v>
+        <v>21.0851193759199</v>
       </c>
       <c r="H3" t="n">
-        <v>21.08511937591983</v>
+        <v>21.0851193759199</v>
       </c>
       <c r="I3" t="n">
-        <v>21.08511937591983</v>
+        <v>21.0851193759199</v>
       </c>
       <c r="J3" t="n">
-        <v>21.08511937591983</v>
+        <v>117.9487307741769</v>
       </c>
       <c r="K3" t="n">
-        <v>95.64621773957437</v>
+        <v>192.5098291378322</v>
       </c>
       <c r="L3" t="n">
-        <v>339.0889684539667</v>
+        <v>339.0889684539652</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4967785168092</v>
+        <v>529.4967785168088</v>
       </c>
       <c r="N3" t="n">
-        <v>739.3527616516408</v>
+        <v>739.3527616516417</v>
       </c>
       <c r="O3" t="n">
-        <v>909.1101923271656</v>
+        <v>909.1101923271676</v>
       </c>
       <c r="P3" t="n">
-        <v>1026.022430280451</v>
+        <v>1026.022430280454</v>
       </c>
       <c r="Q3" t="n">
-        <v>1054.255968795991</v>
+        <v>1054.255968795995</v>
       </c>
       <c r="R3" t="n">
-        <v>1035.871862158896</v>
+        <v>1035.8718621589</v>
       </c>
       <c r="S3" t="n">
-        <v>1035.871862158896</v>
+        <v>1035.8718621589</v>
       </c>
       <c r="T3" t="n">
-        <v>1035.871862158896</v>
+        <v>839.0596531889299</v>
       </c>
       <c r="U3" t="n">
-        <v>1035.871862158896</v>
+        <v>610.9237561277879</v>
       </c>
       <c r="V3" t="n">
-        <v>800.7197539271535</v>
+        <v>610.9237561277879</v>
       </c>
       <c r="W3" t="n">
-        <v>800.7197539271535</v>
+        <v>356.6863993995863</v>
       </c>
       <c r="X3" t="n">
-        <v>592.8682537216207</v>
+        <v>356.6863993995863</v>
       </c>
       <c r="Y3" t="n">
-        <v>385.1079549566668</v>
+        <v>356.6863993995863</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>651.8149248222214</v>
+        <v>21.0851193759199</v>
       </c>
       <c r="C4" t="n">
-        <v>482.8787418943145</v>
+        <v>21.0851193759199</v>
       </c>
       <c r="D4" t="n">
-        <v>332.7621024819788</v>
+        <v>21.0851193759199</v>
       </c>
       <c r="E4" t="n">
-        <v>184.8490088995857</v>
+        <v>21.0851193759199</v>
       </c>
       <c r="F4" t="n">
-        <v>37.95906140167531</v>
+        <v>21.0851193759199</v>
       </c>
       <c r="G4" t="n">
-        <v>37.95906140167531</v>
+        <v>21.0851193759199</v>
       </c>
       <c r="H4" t="n">
-        <v>21.08511937591983</v>
+        <v>21.0851193759199</v>
       </c>
       <c r="I4" t="n">
-        <v>21.08511937591983</v>
+        <v>21.0851193759199</v>
       </c>
       <c r="J4" t="n">
-        <v>21.08511937591983</v>
+        <v>21.0851193759199</v>
       </c>
       <c r="K4" t="n">
-        <v>126.3272391953611</v>
+        <v>126.3272391953618</v>
       </c>
       <c r="L4" t="n">
-        <v>316.52735357353</v>
+        <v>316.5273535735312</v>
       </c>
       <c r="M4" t="n">
-        <v>527.4558292559548</v>
+        <v>527.4558292559565</v>
       </c>
       <c r="N4" t="n">
-        <v>738.8035136568286</v>
+        <v>738.803513656831</v>
       </c>
       <c r="O4" t="n">
-        <v>918.0010123005239</v>
+        <v>918.0010123005268</v>
       </c>
       <c r="P4" t="n">
-        <v>1047.814747485826</v>
+        <v>1047.814747485829</v>
       </c>
       <c r="Q4" t="n">
-        <v>1054.255968795991</v>
+        <v>1054.255968795995</v>
       </c>
       <c r="R4" t="n">
-        <v>1054.255968795991</v>
+        <v>925.434162563218</v>
       </c>
       <c r="S4" t="n">
-        <v>1054.255968795991</v>
+        <v>718.6357802067823</v>
       </c>
       <c r="T4" t="n">
-        <v>1054.255968795991</v>
+        <v>493.1639617788471</v>
       </c>
       <c r="U4" t="n">
-        <v>1054.255968795991</v>
+        <v>493.1639617788471</v>
       </c>
       <c r="V4" t="n">
-        <v>1054.255968795991</v>
+        <v>287.3113741223833</v>
       </c>
       <c r="W4" t="n">
-        <v>1054.255968795991</v>
+        <v>21.0851193759199</v>
       </c>
       <c r="X4" t="n">
-        <v>1054.255968795991</v>
+        <v>21.0851193759199</v>
       </c>
       <c r="Y4" t="n">
-        <v>833.4633896524612</v>
+        <v>21.0851193759199</v>
       </c>
     </row>
     <row r="5">
@@ -4544,13 +4544,13 @@
         <v>522.1002068716687</v>
       </c>
       <c r="C5" t="n">
-        <v>300.4385797407429</v>
+        <v>522.1002068716687</v>
       </c>
       <c r="D5" t="n">
-        <v>300.4385797407429</v>
+        <v>307.3840804899464</v>
       </c>
       <c r="E5" t="n">
-        <v>300.4385797407429</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="F5" t="n">
         <v>34.06092317356495</v>
@@ -4565,16 +4565,16 @@
         <v>21.09711040012049</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917585</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K5" t="n">
-        <v>142.2640879052541</v>
+        <v>142.264087905254</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515907</v>
+        <v>294.5174947515905</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030601</v>
+        <v>495.5981834030603</v>
       </c>
       <c r="N5" t="n">
         <v>704.5463761991316</v>
@@ -4607,10 +4607,10 @@
         <v>1054.855520006025</v>
       </c>
       <c r="X5" t="n">
-        <v>1054.855520006025</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="Y5" t="n">
-        <v>788.4778634388466</v>
+        <v>522.1002068716687</v>
       </c>
     </row>
     <row r="6">
@@ -4647,19 +4647,19 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K6" t="n">
-        <v>95.78113116957468</v>
+        <v>95.78113116957465</v>
       </c>
       <c r="L6" t="n">
-        <v>242.5255548298714</v>
+        <v>242.5255548298713</v>
       </c>
       <c r="M6" t="n">
-        <v>433.1262439263952</v>
+        <v>433.1262439263951</v>
       </c>
       <c r="N6" t="n">
-        <v>643.1802110290002</v>
+        <v>643.1802110290001</v>
       </c>
       <c r="O6" t="n">
-        <v>813.1187583557301</v>
+        <v>813.1187583557299</v>
       </c>
       <c r="P6" t="n">
         <v>1026.524810789493</v>
@@ -4668,28 +4668,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R6" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S6" t="n">
-        <v>1054.855520006025</v>
+        <v>887.8833378166544</v>
       </c>
       <c r="T6" t="n">
-        <v>1054.855520006025</v>
+        <v>691.074259448092</v>
       </c>
       <c r="U6" t="n">
-        <v>1054.855520006025</v>
+        <v>510.4865753600648</v>
       </c>
       <c r="V6" t="n">
-        <v>819.7034117742819</v>
+        <v>275.3344671283221</v>
       </c>
       <c r="W6" t="n">
-        <v>565.4660550460803</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="X6" t="n">
-        <v>357.6145548405475</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="Y6" t="n">
-        <v>149.8542560755936</v>
+        <v>21.09711040012049</v>
       </c>
     </row>
     <row r="7">
@@ -4699,16 +4699,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>634.9529738206666</v>
+        <v>190.0332933280274</v>
       </c>
       <c r="C7" t="n">
-        <v>466.0167908927597</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="D7" t="n">
-        <v>315.900151480424</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E7" t="n">
-        <v>167.9870578980309</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F7" t="n">
         <v>21.09711040012049</v>
@@ -4726,19 +4726,19 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287947</v>
+        <v>126.4133765287949</v>
       </c>
       <c r="L7" t="n">
-        <v>316.7083726551009</v>
+        <v>316.708372655101</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375333</v>
+        <v>527.7368878375337</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227044</v>
+        <v>739.1822330227046</v>
       </c>
       <c r="O7" t="n">
-        <v>918.469937207554</v>
+        <v>918.4699372075543</v>
       </c>
       <c r="P7" t="n">
         <v>1048.360858816803</v>
@@ -4747,28 +4747,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R7" t="n">
-        <v>1054.855520006025</v>
+        <v>939.0849889991096</v>
       </c>
       <c r="S7" t="n">
-        <v>1054.855520006025</v>
+        <v>939.0849889991096</v>
       </c>
       <c r="T7" t="n">
-        <v>1054.855520006025</v>
+        <v>939.0849889991096</v>
       </c>
       <c r="U7" t="n">
-        <v>1054.855520006025</v>
+        <v>672.7073324319316</v>
       </c>
       <c r="V7" t="n">
-        <v>1054.855520006025</v>
+        <v>418.0228442260448</v>
       </c>
       <c r="W7" t="n">
-        <v>1054.855520006025</v>
+        <v>418.0228442260448</v>
       </c>
       <c r="X7" t="n">
-        <v>1037.394017794436</v>
+        <v>190.0332933280274</v>
       </c>
       <c r="Y7" t="n">
-        <v>816.6014386509063</v>
+        <v>190.0332933280274</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>728.3028554854573</v>
+        <v>1709.873294294348</v>
       </c>
       <c r="C8" t="n">
-        <v>359.3403385450455</v>
+        <v>1340.910777353936</v>
       </c>
       <c r="D8" t="n">
-        <v>69.85663355251364</v>
+        <v>982.6450787471858</v>
       </c>
       <c r="E8" t="n">
-        <v>69.85663355251364</v>
+        <v>596.8568261489415</v>
       </c>
       <c r="F8" t="n">
-        <v>62.91113280331017</v>
+        <v>589.9113253997381</v>
       </c>
       <c r="G8" t="n">
-        <v>51.24678656800311</v>
+        <v>174.2065751240269</v>
       </c>
       <c r="H8" t="n">
         <v>51.24678656800311</v>
@@ -4802,25 +4802,25 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362818</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816085</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872917</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230816</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740839</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q8" t="n">
         <v>2542.25058172385</v>
@@ -4832,22 +4832,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400155</v>
+        <v>2100.01262627016</v>
       </c>
       <c r="V8" t="n">
-        <v>2231.276441056585</v>
+        <v>2100.01262627016</v>
       </c>
       <c r="W8" t="n">
-        <v>1878.507785786471</v>
+        <v>2100.01262627016</v>
       </c>
       <c r="X8" t="n">
-        <v>1505.042027525391</v>
+        <v>2100.01262627016</v>
       </c>
       <c r="Y8" t="n">
-        <v>1114.902695549579</v>
+        <v>1709.873294294348</v>
       </c>
     </row>
     <row r="9">
@@ -4887,22 +4887,22 @@
         <v>298.3188265310613</v>
       </c>
       <c r="L9" t="n">
-        <v>777.6069060507746</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M9" t="n">
-        <v>1140.868925009995</v>
+        <v>956.284402521753</v>
       </c>
       <c r="N9" t="n">
-        <v>1528.15405360694</v>
+        <v>1565.661695681274</v>
       </c>
       <c r="O9" t="n">
-        <v>1860.224488783102</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P9" t="n">
-        <v>2422.685363568936</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>665.1026499885492</v>
+        <v>349.2765195627319</v>
       </c>
       <c r="C10" t="n">
-        <v>496.1664670606423</v>
+        <v>349.2765195627319</v>
       </c>
       <c r="D10" t="n">
-        <v>346.0498276483066</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="E10" t="n">
-        <v>198.1367340659135</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F10" t="n">
         <v>51.24678656800311</v>
@@ -4984,28 +4984,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1310.884232784815</v>
       </c>
       <c r="U10" t="n">
-        <v>1550.217733066223</v>
+        <v>1021.765895288652</v>
       </c>
       <c r="V10" t="n">
-        <v>1295.533244860336</v>
+        <v>1021.765895288652</v>
       </c>
       <c r="W10" t="n">
-        <v>1295.533244860336</v>
+        <v>732.3487252516918</v>
       </c>
       <c r="X10" t="n">
-        <v>1067.543693962319</v>
+        <v>732.3487252516918</v>
       </c>
       <c r="Y10" t="n">
-        <v>846.7511148187889</v>
+        <v>530.9249843929716</v>
       </c>
     </row>
     <row r="11">
@@ -5021,13 +5021,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5036,19 +5036,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355938</v>
@@ -5057,7 +5057,7 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5118,25 +5118,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>352.5519571452614</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718133</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>653.7474797708871</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C13" t="n">
-        <v>484.8112968429803</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="D13" t="n">
-        <v>484.8112968429803</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429803</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,13 +5264,13 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192599</v>
@@ -5279,43 +5279,43 @@
         <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
         <v>3094.515198591809</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,31 +5349,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>983.3556038098242</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C16" t="n">
-        <v>814.4194208819173</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D16" t="n">
-        <v>664.3027814695815</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="E16" t="n">
-        <v>516.3896878871884</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="F16" t="n">
-        <v>369.499740389278</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>94.65038286230657</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5461,25 +5461,25 @@
         <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.963083580261</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2446.963083580261</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>2157.887856924459</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1903.203368718572</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1613.786198681611</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>1385.796647783594</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y16" t="n">
-        <v>1165.004068640064</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="17">
@@ -5507,19 +5507,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192684</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111722</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075816</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
         <v>2206.55866301478</v>
@@ -5531,19 +5531,19 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466574</v>
@@ -5555,7 +5555,7 @@
         <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>119.2902967703784</v>
+        <v>634.5603720565524</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969303</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951537</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5653,16 +5653,16 @@
         <v>411.9631215597624</v>
       </c>
       <c r="D19" t="n">
-        <v>411.9631215597624</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E19" t="n">
-        <v>264.0500279773693</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F19" t="n">
-        <v>264.0500279773693</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G19" t="n">
-        <v>96.85392869224921</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797189</v>
@@ -5732,13 +5732,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5747,13 +5747,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,28 +5826,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>245.2306927803937</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="L21" t="n">
-        <v>740.5562989961525</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M21" t="n">
-        <v>1337.934786622704</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N21" t="n">
-        <v>1965.532750177311</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>2516.421633107662</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
         <v>2516.421633107662</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>662.1522880254209</v>
+        <v>577.8620388433919</v>
       </c>
       <c r="C22" t="n">
-        <v>493.2161050975141</v>
+        <v>408.925855915485</v>
       </c>
       <c r="D22" t="n">
-        <v>343.0994656851783</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E22" t="n">
-        <v>343.0994656851783</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F22" t="n">
-        <v>343.0994656851783</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2345.361232772917</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2125.759767795858</v>
+        <v>2041.469518613829</v>
       </c>
       <c r="U22" t="n">
-        <v>1836.684541140056</v>
+        <v>1752.394291958027</v>
       </c>
       <c r="V22" t="n">
-        <v>1582.000052934169</v>
+        <v>1497.70980375214</v>
       </c>
       <c r="W22" t="n">
-        <v>1292.582882897208</v>
+        <v>1208.292633715179</v>
       </c>
       <c r="X22" t="n">
-        <v>1064.593331999191</v>
+        <v>980.3030828171618</v>
       </c>
       <c r="Y22" t="n">
-        <v>843.8007528556607</v>
+        <v>759.5105036736317</v>
       </c>
     </row>
     <row r="23">
@@ -5966,13 +5966,13 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
         <v>793.7736536168611</v>
@@ -5984,10 +5984,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -5996,13 +5996,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6066,28 +6066,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>945.402603663004</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6266,7 +6266,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6306,25 +6306,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637306</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M27" t="n">
-        <v>1186.520756890282</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N27" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C28" t="n">
-        <v>407.9027098310023</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D28" t="n">
-        <v>407.9027098310023</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
         <v>93.81666304797187</v>
@@ -6458,31 +6458,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6500,10 +6500,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6540,25 +6540,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6680,13 +6680,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6701,19 +6701,19 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6777,28 +6777,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>175.8744207939072</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>175.8744207939072</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>671.2000270096659</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6838,16 +6838,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192559</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266881</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2072.35525930079</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7129,16 +7129,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>1029.292738813773</v>
       </c>
     </row>
     <row r="38">
@@ -7148,28 +7148,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168597</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
@@ -7178,22 +7178,22 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7211,13 +7211,13 @@
         <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7254,19 +7254,19 @@
         <v>95.58405025273902</v>
       </c>
       <c r="K39" t="n">
-        <v>95.58405025273902</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L39" t="n">
-        <v>95.58405025273902</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="P39" t="n">
         <v>2283.159972732779</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797186</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
         <v>1948.813509611463</v>
@@ -7400,16 +7400,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7436,25 +7436,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7555,16 +7555,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7622,49 +7622,49 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362677</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797186</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
         <v>4562.265728852254</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474783</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
         <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7725,28 +7725,28 @@
         <v>93.81666304797186</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,16 +7780,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>866.4638174991042</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908938</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908938</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908938</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F46" t="n">
         <v>402.7245934908938</v>
@@ -7834,22 +7834,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2040.65412723258</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1751.578900576778</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1496.894412370891</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1496.894412370891</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>1268.904861472874</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>1048.112282329344</v>
       </c>
     </row>
   </sheetData>
@@ -7976,7 +7976,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1.050829008593229</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -7994,13 +7994,13 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>1.050829008586646</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.60994937518655</v>
+        <v>60.60994937518601</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,13 +8055,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.123866789362452</v>
+        <v>99.96589850477312</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>97.84203171541449</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761151</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>2.051220519418237</v>
+        <v>2.051220519418266</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8310,7 +8310,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>97.32166909127221</v>
+        <v>97.32166909127238</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -8535,25 +8535,25 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>186.4490126143855</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>224.3355197601777</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>305.1601501039159</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8705,7 +8705,7 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-12</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -9890,10 +9890,10 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>-1.607976446034537e-13</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23425,7 +23425,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>104.0840080815012</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>138.4949402405074</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23659,19 +23659,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>114.1584408891651</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>139.4693302300325</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,10 +23701,10 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23893,19 +23893,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>125.5054897610402</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>137.2878198583893</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856552</v>
@@ -24130,10 +24130,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24145,7 +24145,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>80.44045370237458</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>63.36835372228751</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>151.7319110345172</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24598,22 +24598,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="C28" t="n">
-        <v>62.35543909864963</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>112.4047682534901</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25078,19 +25078,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25312,22 +25312,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25369,7 +25369,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>78.31512318719908</v>
       </c>
     </row>
     <row r="38">
@@ -25552,19 +25552,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25594,13 +25594,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>46.45968844823099</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25795,16 +25795,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>143.6212754172151</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>57.2291039219422</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26029,10 +26029,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26074,7 +26074,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>62.56111625485133</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26083,13 +26083,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>708656.6927253043</v>
+        <v>708656.692725304</v>
       </c>
     </row>
     <row r="3">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>693393.9373166532</v>
+        <v>693393.9373166531</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>693393.9373166532</v>
+        <v>693393.9373166531</v>
       </c>
     </row>
     <row r="10">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>738937.5928778551</v>
+        <v>738937.5928778552</v>
       </c>
       <c r="C2" t="n">
-        <v>738937.5928778552</v>
+        <v>738937.5928778549</v>
       </c>
       <c r="D2" t="n">
-        <v>738937.5928778544</v>
+        <v>738937.5928778545</v>
       </c>
       <c r="E2" t="n">
-        <v>726431.9397210055</v>
+        <v>726431.9397210052</v>
       </c>
       <c r="F2" t="n">
-        <v>726431.9397210055</v>
+        <v>726431.939721005</v>
       </c>
       <c r="G2" t="n">
-        <v>726431.939721005</v>
+        <v>726431.9397210052</v>
       </c>
       <c r="H2" t="n">
-        <v>726431.9397210054</v>
+        <v>726431.9397210053</v>
       </c>
       <c r="I2" t="n">
         <v>726431.9397210052</v>
       </c>
       <c r="J2" t="n">
+        <v>726431.9397210055</v>
+      </c>
+      <c r="K2" t="n">
+        <v>726431.9397210053</v>
+      </c>
+      <c r="L2" t="n">
+        <v>726431.9397210054</v>
+      </c>
+      <c r="M2" t="n">
         <v>726431.9397210056</v>
-      </c>
-      <c r="K2" t="n">
-        <v>726431.9397210054</v>
-      </c>
-      <c r="L2" t="n">
-        <v>726431.939721005</v>
-      </c>
-      <c r="M2" t="n">
-        <v>726431.9397210054</v>
       </c>
       <c r="N2" t="n">
         <v>726431.9397210053</v>
       </c>
       <c r="O2" t="n">
-        <v>726431.9397210054</v>
+        <v>726431.9397210053</v>
       </c>
       <c r="P2" t="n">
-        <v>726431.9397210053</v>
+        <v>726431.9397210055</v>
       </c>
     </row>
     <row r="3">
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>679693.2761163124</v>
+        <v>679693.2761163148</v>
       </c>
       <c r="C3" t="n">
-        <v>373.947538996127</v>
+        <v>373.9475389937627</v>
       </c>
       <c r="D3" t="n">
-        <v>391128.3638059433</v>
+        <v>391128.3638059434</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245459</v>
+        <v>507485.4416245461</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26384,25 +26384,25 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.574418839027077e-11</v>
       </c>
       <c r="J3" t="n">
-        <v>68959.93717491459</v>
+        <v>68959.93717491483</v>
       </c>
       <c r="K3" t="n">
-        <v>38.57632395596059</v>
+        <v>38.57632395572652</v>
       </c>
       <c r="L3" t="n">
-        <v>95382.64613756974</v>
+        <v>95382.64613756971</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289266</v>
+        <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>5.148837678054155e-11</v>
       </c>
       <c r="O3" t="n">
-        <v>5.148837678054155e-11</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>246846.0156077613</v>
+        <v>246846.0156077608</v>
       </c>
       <c r="C4" t="n">
-        <v>246753.8673982313</v>
+        <v>246753.8673982314</v>
       </c>
       <c r="D4" t="n">
         <v>134318.0002618638</v>
       </c>
       <c r="E4" t="n">
+        <v>8117.312426731948</v>
+      </c>
+      <c r="F4" t="n">
+        <v>8117.312426731975</v>
+      </c>
+      <c r="G4" t="n">
+        <v>8117.312426731944</v>
+      </c>
+      <c r="H4" t="n">
         <v>8117.312426731974</v>
       </c>
-      <c r="F4" t="n">
+      <c r="I4" t="n">
         <v>8117.312426731974</v>
       </c>
-      <c r="G4" t="n">
-        <v>8117.312426731975</v>
-      </c>
-      <c r="H4" t="n">
-        <v>8117.312426731998</v>
-      </c>
-      <c r="I4" t="n">
-        <v>8117.312426731998</v>
-      </c>
       <c r="J4" t="n">
-        <v>8117.312426731985</v>
+        <v>8117.312426731976</v>
       </c>
       <c r="K4" t="n">
-        <v>8117.312426731984</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="L4" t="n">
         <v>8117.312426731974</v>
       </c>
       <c r="M4" t="n">
-        <v>8117.312426732038</v>
+        <v>8117.312426731992</v>
       </c>
       <c r="N4" t="n">
-        <v>8117.312426732027</v>
+        <v>8117.312426732004</v>
       </c>
       <c r="O4" t="n">
-        <v>8117.312426732045</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="P4" t="n">
-        <v>8117.312426732018</v>
+        <v>8117.312426732015</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63030.89693360374</v>
+        <v>63030.89693360384</v>
       </c>
       <c r="C5" t="n">
         <v>63047.80320426619</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-250632.5957798224</v>
+        <v>-250632.5957798242</v>
       </c>
       <c r="C6" t="n">
-        <v>428761.9747363615</v>
+        <v>428761.9747363636</v>
       </c>
       <c r="D6" t="n">
         <v>120553.4563702026</v>
       </c>
       <c r="E6" t="n">
-        <v>109706.6558458205</v>
+        <v>109671.9179203843</v>
       </c>
       <c r="F6" t="n">
-        <v>617192.0974703662</v>
+        <v>617157.3595449304</v>
       </c>
       <c r="G6" t="n">
-        <v>617192.0974703659</v>
+        <v>617157.3595449305</v>
       </c>
       <c r="H6" t="n">
-        <v>617192.0974703664</v>
+        <v>617157.3595449307</v>
       </c>
       <c r="I6" t="n">
-        <v>617192.097470366</v>
+        <v>617157.3595449305</v>
       </c>
       <c r="J6" t="n">
-        <v>548232.1602954519</v>
+        <v>548197.422370016</v>
       </c>
       <c r="K6" t="n">
-        <v>617153.5211464103</v>
+        <v>617118.783220975</v>
       </c>
       <c r="L6" t="n">
-        <v>521809.4513327962</v>
+        <v>521774.7134073609</v>
       </c>
       <c r="M6" t="n">
-        <v>484584.8037414397</v>
+        <v>484550.0658160041</v>
       </c>
       <c r="N6" t="n">
-        <v>617192.0974703662</v>
+        <v>617157.3595449305</v>
       </c>
       <c r="O6" t="n">
-        <v>617192.0974703663</v>
+        <v>617157.3595449306</v>
       </c>
       <c r="P6" t="n">
-        <v>617192.0974703662</v>
+        <v>617157.3595449307</v>
       </c>
     </row>
   </sheetData>
@@ -26719,13 +26719,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>3.519713256482333e-14</v>
+        <v>2.482815996219201e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>613.6975324726915</v>
+        <v>613.6975324726936</v>
       </c>
       <c r="C3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="D3" t="n">
         <v>934.0648921175391</v>
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.5639921989978</v>
+        <v>263.5639921989987</v>
       </c>
       <c r="C4" t="n">
         <v>263.7138800015061</v>
@@ -26799,7 +26799,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099649</v>
@@ -26920,13 +26920,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-3.218023548783847e-14</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26935,16 +26935,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>-3.218023548783847e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26957,19 +26957,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>613.6975324726915</v>
+        <v>613.6975324726936</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3574812967868866</v>
+        <v>0.3574812967846128</v>
       </c>
       <c r="D3" t="n">
-        <v>320.0098783480607</v>
+        <v>320.0098783480609</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241346</v>
+        <v>433.9106082241349</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27009,10 +27009,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.5639921989978</v>
+        <v>263.5639921989987</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1498878025083172</v>
+        <v>0.1498878025074077</v>
       </c>
       <c r="D4" t="n">
         <v>376.8709520985327</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.5639921989978</v>
+        <v>263.5639921989987</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1498878025083172</v>
+        <v>0.1498878025074077</v>
       </c>
       <c r="L4" t="n">
         <v>376.8709520985327</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996093</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27163,7 +27163,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27255,10 +27255,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.5639921989978</v>
+        <v>263.5639921989987</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1498878025083172</v>
+        <v>0.1498878025074077</v>
       </c>
       <c r="L4" t="n">
         <v>376.8709520985327</v>
@@ -27391,13 +27391,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>149.2716195574521</v>
       </c>
       <c r="H2" t="n">
-        <v>314.2083504396427</v>
+        <v>314.2083504396426</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3620237587338</v>
+        <v>115.3620237587334</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.8004413602294</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2960065554913</v>
+        <v>127.4096199766968</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1482828471418</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>115.31675163942</v>
+        <v>64.18826627113617</v>
       </c>
       <c r="W2" t="n">
-        <v>85.67697651841519</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>106.1671084794712</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>122.6739464570558</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27455,13 +27455,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>6.996415414753386</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>126.3041409778824</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -27473,10 +27473,10 @@
         <v>136.0234885084581</v>
       </c>
       <c r="H3" t="n">
-        <v>99.48674643928074</v>
+        <v>99.48674643928069</v>
       </c>
       <c r="I3" t="n">
-        <v>43.9482778522582</v>
+        <v>43.94827785225804</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27506,25 +27506,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1642178017449</v>
+        <v>147.1642178017448</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8440868802706</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8545380905306</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27534,31 +27534,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.8843116769506</v>
       </c>
       <c r="H4" t="n">
-        <v>135.6826881518057</v>
+        <v>152.3878907573036</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1699595597228</v>
+        <v>122.1699595597227</v>
       </c>
       <c r="J4" t="n">
-        <v>15.11777503404784</v>
+        <v>15.11777503404757</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5335881704493</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7303985328714</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2171002436558</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2586656647723</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>48.34358154392879</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>22.95900613759227</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,19 +27613,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>119.0199616619744</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>145.8278809113911</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>142.1140765027779</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>118.2164900707556</v>
       </c>
       <c r="F5" t="n">
-        <v>143.1621657402053</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27679,7 +27679,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>106.0172206769629</v>
       </c>
       <c r="Y5" t="n">
         <v>122.5240586545474</v>
@@ -27692,7 +27692,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>39.06360943114899</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -27710,10 +27710,10 @@
         <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120974</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I6" t="n">
-        <v>43.92180400150558</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,16 +27740,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527767</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8544875035546</v>
+        <v>47.07268025640772</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -27758,10 +27758,10 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27771,19 +27771,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.8836670385466</v>
@@ -27795,7 +27795,7 @@
         <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888208</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>127.5046028836639</v>
+        <v>12.89177718681809</v>
       </c>
       <c r="S7" t="n">
         <v>204.7191642435938</v>
@@ -27828,19 +27828,19 @@
         <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2586305026775</v>
+        <v>22.54475050117135</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>208.4227681995649</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>68.0941736780764</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>179.2883618919418</v>
       </c>
       <c r="I8" t="n">
         <v>65.70991267247049</v>
@@ -27904,19 +27904,19 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,7 +28011,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28020,7 +28020,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.3066000448042</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>200.8610509830096</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>19.17514990196182</v>
       </c>
     </row>
     <row r="11">
@@ -28612,7 +28612,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>-3.527666906269152e-13</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29047,7 +29047,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -29992,13 +29992,13 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30223,7 +30223,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>6.751381063403296e-13</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30457,10 +30457,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>1.414636683656336e-12</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -30472,10 +30472,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30508,13 +30508,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -30706,13 +30706,13 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>9.848122317634988e-13</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.467125758684185</v>
+        <v>2.467125758684193</v>
       </c>
       <c r="H2" t="n">
-        <v>25.26645167612442</v>
+        <v>25.2664516761245</v>
       </c>
       <c r="I2" t="n">
-        <v>95.11386581167213</v>
+        <v>95.11386581167247</v>
       </c>
       <c r="J2" t="n">
-        <v>209.394214861122</v>
+        <v>209.3942148611228</v>
       </c>
       <c r="K2" t="n">
-        <v>313.8276482262236</v>
+        <v>313.8276482262248</v>
       </c>
       <c r="L2" t="n">
-        <v>389.3309481635549</v>
+        <v>389.3309481635562</v>
       </c>
       <c r="M2" t="n">
-        <v>433.2056958745547</v>
+        <v>433.2056958745562</v>
       </c>
       <c r="N2" t="n">
-        <v>440.2154169364162</v>
+        <v>440.2154169364177</v>
       </c>
       <c r="O2" t="n">
-        <v>415.6829351735003</v>
+        <v>415.6829351735017</v>
       </c>
       <c r="P2" t="n">
-        <v>354.7757680059844</v>
+        <v>354.7757680059857</v>
       </c>
       <c r="Q2" t="n">
-        <v>266.4218267731069</v>
+        <v>266.4218267731079</v>
       </c>
       <c r="R2" t="n">
-        <v>154.9755884389456</v>
+        <v>154.9755884389461</v>
       </c>
       <c r="S2" t="n">
-        <v>56.21962822601592</v>
+        <v>56.21962822601612</v>
       </c>
       <c r="T2" t="n">
-        <v>10.79984300864002</v>
+        <v>10.79984300864006</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1973700606947348</v>
+        <v>0.1973700606947354</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.320028654752582</v>
+        <v>1.320028654752586</v>
       </c>
       <c r="H3" t="n">
-        <v>12.74869779721572</v>
+        <v>12.74869779721577</v>
       </c>
       <c r="I3" t="n">
-        <v>45.44835499915688</v>
+        <v>45.44835499915703</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7137598773042</v>
+        <v>124.7137598773047</v>
       </c>
       <c r="K3" t="n">
-        <v>213.1556797457272</v>
+        <v>213.155679745728</v>
       </c>
       <c r="L3" t="n">
-        <v>286.6141164628358</v>
+        <v>286.6141164628368</v>
       </c>
       <c r="M3" t="n">
-        <v>334.4651551976168</v>
+        <v>334.465155197618</v>
       </c>
       <c r="N3" t="n">
-        <v>343.3174526235673</v>
+        <v>343.3174526235685</v>
       </c>
       <c r="O3" t="n">
-        <v>314.0683966419443</v>
+        <v>314.0683966419454</v>
       </c>
       <c r="P3" t="n">
-        <v>252.0675770641136</v>
+        <v>252.0675770641145</v>
       </c>
       <c r="Q3" t="n">
-        <v>168.5004998592945</v>
+        <v>168.5004998592951</v>
       </c>
       <c r="R3" t="n">
-        <v>81.95756858191909</v>
+        <v>81.95756858191939</v>
       </c>
       <c r="S3" t="n">
-        <v>24.51895330209289</v>
+        <v>24.51895330209298</v>
       </c>
       <c r="T3" t="n">
-        <v>5.320641814550974</v>
+        <v>5.320641814550993</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08684399044424883</v>
+        <v>0.08684399044424913</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.106667681508132</v>
+        <v>1.106667681508136</v>
       </c>
       <c r="H4" t="n">
-        <v>9.839281750135944</v>
+        <v>9.83928175013598</v>
       </c>
       <c r="I4" t="n">
-        <v>33.28051536753547</v>
+        <v>33.28051536753559</v>
       </c>
       <c r="J4" t="n">
-        <v>78.24140508262494</v>
+        <v>78.24140508262521</v>
       </c>
       <c r="K4" t="n">
-        <v>128.574663360672</v>
+        <v>128.5746633606725</v>
       </c>
       <c r="L4" t="n">
-        <v>164.5313023943999</v>
+        <v>164.5313023944005</v>
       </c>
       <c r="M4" t="n">
-        <v>173.4751893840429</v>
+        <v>173.4751893840435</v>
       </c>
       <c r="N4" t="n">
-        <v>169.3503371166036</v>
+        <v>169.3503371166042</v>
       </c>
       <c r="O4" t="n">
-        <v>156.4224464735313</v>
+        <v>156.4224464735319</v>
       </c>
       <c r="P4" t="n">
-        <v>133.8464257707653</v>
+        <v>133.8464257707658</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.66832740337641</v>
+        <v>92.66832740337674</v>
       </c>
       <c r="R4" t="n">
-        <v>49.75980320672018</v>
+        <v>49.75980320672036</v>
       </c>
       <c r="S4" t="n">
-        <v>19.2861995041008</v>
+        <v>19.28619950410087</v>
       </c>
       <c r="T4" t="n">
-        <v>4.728489184625654</v>
+        <v>4.728489184625671</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06036369171862545</v>
+        <v>0.06036369171862567</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,31 +31276,31 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.468562869425037</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H5" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I5" t="n">
-        <v>95.16927002350883</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J5" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K5" t="n">
-        <v>314.0104541016253</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L5" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M5" t="n">
-        <v>433.4580399459293</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N5" t="n">
-        <v>440.4718441986832</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O5" t="n">
-        <v>415.925072165838</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P5" t="n">
         <v>354.9824263269073</v>
@@ -31312,7 +31312,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702308</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T5" t="n">
         <v>10.8061339609081</v>
@@ -31361,16 +31361,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990949</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J6" t="n">
-        <v>124.7864061472485</v>
+        <v>124.7864061472484</v>
       </c>
       <c r="K6" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L6" t="n">
-        <v>286.7810703458305</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M6" t="n">
         <v>334.6599825043656</v>
@@ -31379,25 +31379,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O6" t="n">
-        <v>314.2513427542726</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480713</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q6" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736546</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S6" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944815</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08689457742020924</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31437,16 +31437,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H7" t="n">
-        <v>9.84501317158279</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I7" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779069</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K7" t="n">
-        <v>128.6495586225235</v>
+        <v>128.6495586225234</v>
       </c>
       <c r="L7" t="n">
         <v>164.6271425440336</v>
@@ -31458,25 +31458,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O7" t="n">
-        <v>156.5135631817681</v>
+        <v>156.513563181768</v>
       </c>
       <c r="P7" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.72230707919122</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350556</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S7" t="n">
-        <v>19.29743379337852</v>
+        <v>19.29743379337851</v>
       </c>
       <c r="T7" t="n">
-        <v>4.731243548715652</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06039885381339138</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>399.9031616963283</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>436.4492970000073</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32075,10 +32075,10 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473073</v>
@@ -32087,16 +32087,16 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>718.5832682008314</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32309,16 +32309,16 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>164.2853229338202</v>
+        <v>194.5189324111248</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862122</v>
@@ -32327,7 +32327,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214699</v>
@@ -32336,7 +32336,7 @@
         <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742439</v>
@@ -32546,31 +32546,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>229.6463482471742</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>699.0496615458086</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
@@ -32786,7 +32786,7 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
@@ -32795,22 +32795,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>324.5433647340733</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33026,13 +33026,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>396.970088694367</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
@@ -33041,13 +33041,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33260,7 +33260,7 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
@@ -33269,19 +33269,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>491.597732526532</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33497,22 +33497,22 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>209.7242506524599</v>
       </c>
       <c r="K33" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
@@ -33521,7 +33521,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33652,7 +33652,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067228</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33731,10 +33731,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
@@ -33743,22 +33743,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>444.2274915982894</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>346.9084613860368</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33974,22 +33974,22 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>732.4825987614915</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>268.6704608606964</v>
       </c>
       <c r="Q39" t="n">
         <v>375.599612848529</v>
@@ -34205,16 +34205,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>209.9499448422525</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34223,16 +34223,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34445,10 +34445,10 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34460,16 +34460,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>285.8867128925984</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.39913934302898</v>
+        <v>28.34831033443649</v>
       </c>
       <c r="K2" t="n">
-        <v>93.73779718124308</v>
+        <v>93.73779718124422</v>
       </c>
       <c r="L2" t="n">
-        <v>153.5645331935676</v>
+        <v>153.564533193569</v>
       </c>
       <c r="M2" t="n">
-        <v>202.859462647282</v>
+        <v>202.8594626472835</v>
       </c>
       <c r="N2" t="n">
-        <v>210.8023533398253</v>
+        <v>210.8023533398268</v>
       </c>
       <c r="O2" t="n">
-        <v>185.5847237518136</v>
+        <v>185.584723751815</v>
       </c>
       <c r="P2" t="n">
-        <v>123.5427722507149</v>
+        <v>124.5936012593028</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.11613689865746</v>
+        <v>44.11613689865843</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>97.84203171541111</v>
       </c>
       <c r="K3" t="n">
-        <v>75.31424077136822</v>
+        <v>75.31424077136896</v>
       </c>
       <c r="L3" t="n">
-        <v>245.9017683983761</v>
+        <v>148.0597366829626</v>
       </c>
       <c r="M3" t="n">
-        <v>192.3311212755985</v>
+        <v>192.3311212755997</v>
       </c>
       <c r="N3" t="n">
-        <v>211.975740540234</v>
+        <v>211.9757405402352</v>
       </c>
       <c r="O3" t="n">
-        <v>171.4721521974998</v>
+        <v>171.472152197501</v>
       </c>
       <c r="P3" t="n">
-        <v>118.0931696497834</v>
+        <v>118.0931696497843</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.51872577327296</v>
+        <v>28.51872577327356</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,25 +34857,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>106.3051715347892</v>
+        <v>106.3051715347897</v>
       </c>
       <c r="L4" t="n">
-        <v>192.1213276547161</v>
+        <v>192.1213276547167</v>
       </c>
       <c r="M4" t="n">
-        <v>213.0590663458835</v>
+        <v>213.0590663458841</v>
       </c>
       <c r="N4" t="n">
-        <v>213.4825094958322</v>
+        <v>213.4825094958328</v>
       </c>
       <c r="O4" t="n">
-        <v>181.007574387571</v>
+        <v>181.0075743875715</v>
       </c>
       <c r="P4" t="n">
-        <v>131.1249850356588</v>
+        <v>131.1249850356593</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.506284151682024</v>
+        <v>6.506284151682351</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.47028331217712</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664472</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L5" t="n">
-        <v>153.7913200468046</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186566</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N5" t="n">
-        <v>211.0587806020923</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O5" t="n">
-        <v>185.8268607441513</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P5" t="n">
-        <v>123.7494305716378</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117364</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,10 +35015,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>75.4384048176305</v>
+        <v>75.43840481763047</v>
       </c>
       <c r="L6" t="n">
-        <v>148.2266905659563</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M6" t="n">
         <v>192.5259485823473</v>
@@ -35030,10 +35030,10 @@
         <v>171.6550983098281</v>
       </c>
       <c r="P6" t="n">
-        <v>215.5616691250132</v>
+        <v>215.5616691250133</v>
       </c>
       <c r="Q6" t="n">
-        <v>28.61687799649641</v>
+        <v>28.61687799649638</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35112,7 +35112,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.56026382749684</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35255,25 +35255,25 @@
         <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>484.1293732522357</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
         <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>615.5326193530516</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="P9" t="n">
-        <v>568.1422977634694</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
         <v>116.4807223308545</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683802</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>261.3487819164541</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>302.474889585677</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35723,10 +35723,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>500.3288951674331</v>
@@ -35735,16 +35735,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>587.2415561174981</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35957,16 +35957,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>25.73094315394598</v>
+        <v>55.96455263125056</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35975,7 +35975,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071396</v>
@@ -35984,7 +35984,7 @@
         <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36194,31 +36194,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>556.4534171013642</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
         <v>37.00975247789211</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
@@ -36443,22 +36443,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>182.409330812055</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36610,10 +36610,10 @@
         <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -36674,13 +36674,13 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>254.8360547723487</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
@@ -36689,13 +36689,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36853,7 +36853,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
@@ -36917,19 +36917,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>349.0014880820875</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37145,22 +37145,22 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>82.88662398579324</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
@@ -37169,7 +37169,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236316905</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37379,10 +37379,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
@@ -37391,22 +37391,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>302.093457676271</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>212.9340539717066</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37549,7 +37549,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902943</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
@@ -37622,22 +37622,22 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>590.3485648394733</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>134.6960534463662</v>
       </c>
       <c r="Q39" t="n">
         <v>235.6178387625075</v>
@@ -37801,7 +37801,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,16 +37853,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>71.39556506237828</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,16 +37871,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38093,10 +38093,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38108,16 +38108,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>151.9123054782682</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
